--- a/Datasets/chik2014.xlsx
+++ b/Datasets/chik2014.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RodolfoSaldanha/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RodolfoSaldanha/Desktop/IP/final_project/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8244558A-BC9F-9246-BBF5-9CBA422C945A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D79182B-8BED-284C-85EA-B5EA4C97C5FE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="460" windowWidth="18960" windowHeight="13700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,29 +39,6 @@
       <rPr>
         <b/>
         <sz val="5.5"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Liberation Sans Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Confirmed</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="5.5"/>
-        <rFont val="Liberation Sans Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>North America</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="5.5"/>
         <rFont val="Liberation Sans Narrow"/>
         <family val="2"/>
       </rPr>
@@ -870,16 +847,22 @@
     </r>
   </si>
   <si>
-    <t>Country/Territory</t>
-  </si>
-  <si>
-    <t>Incidence Rate</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
     <t>Week</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Incidence rate</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -992,7 +975,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1031,19 +1014,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1102,77 +1072,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,26 +1151,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1545,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -1559,1180 +1514,1172 @@
     <col min="6" max="6" width="17.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="9.25" customHeight="1">
-      <c r="A1" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A1" t="s">
         <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A2" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="33" t="s">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>35182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8">
+        <v>155</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>118129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8">
+        <v>11</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>320051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>166</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>473431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="F9" s="8">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
+        <v>143</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="F10" s="10">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="10">
+        <v>135226</v>
+      </c>
+      <c r="D11" s="8">
+        <v>157</v>
+      </c>
+      <c r="E11" s="15">
+        <v>2135.4</v>
+      </c>
+      <c r="F11" s="10">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="10">
+        <v>27343</v>
+      </c>
+      <c r="D12" s="8">
+        <v>198</v>
+      </c>
+      <c r="E12" s="9">
+        <v>178.1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>15468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5338</v>
+      </c>
+      <c r="D13" s="8">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9">
+        <v>66</v>
+      </c>
+      <c r="F13" s="10">
+        <v>8098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1598</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2695</v>
+      </c>
+      <c r="E14" s="9">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="F14" s="10">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="F15" s="10">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="13">
+        <v>169505</v>
+      </c>
+      <c r="D16" s="13">
+        <v>3231</v>
+      </c>
+      <c r="E16" s="14">
+        <v>383.4</v>
+      </c>
+      <c r="F16" s="13">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>11266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="10">
+        <v>539099</v>
+      </c>
+      <c r="D19" s="8">
+        <v>84</v>
+      </c>
+      <c r="E19" s="15">
+        <v>5182.5</v>
+      </c>
+      <c r="F19" s="10">
+        <v>10404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="10">
+        <v>9050</v>
+      </c>
+      <c r="D20" s="10">
+        <v>5020</v>
+      </c>
+      <c r="E20" s="15">
+        <v>5650.6</v>
+      </c>
+      <c r="F20" s="8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="10">
+        <v>81200</v>
+      </c>
+      <c r="D21" s="8">
+        <v>430</v>
+      </c>
+      <c r="E21" s="15">
+        <v>17517.2</v>
+      </c>
+      <c r="F21" s="8">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="10">
+        <v>64695</v>
+      </c>
+      <c r="D22" s="8">
+        <v>14</v>
+      </c>
+      <c r="E22" s="9">
+        <v>627.20000000000005</v>
+      </c>
+      <c r="F22" s="10">
+        <v>10317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="10">
+        <v>72200</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1515</v>
+      </c>
+      <c r="E23" s="15">
+        <v>56703.8</v>
+      </c>
+      <c r="F23" s="8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="8.5" customHeight="1">
+      <c r="A24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="10">
+        <v>30247</v>
+      </c>
+      <c r="D24" s="10">
+        <v>4465</v>
+      </c>
+      <c r="E24" s="9">
+        <v>941.2</v>
+      </c>
+      <c r="F24" s="10">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1393</v>
+      </c>
+      <c r="D25" s="8">
+        <v>142</v>
+      </c>
+      <c r="E25" s="15">
+        <v>17247.2</v>
+      </c>
+      <c r="F25" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="10">
+        <v>4830</v>
+      </c>
+      <c r="D26" s="8">
+        <v>793</v>
+      </c>
+      <c r="E26" s="15">
+        <v>15755.1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="13">
+        <v>802714</v>
+      </c>
+      <c r="D27" s="13">
+        <v>12463</v>
+      </c>
+      <c r="E27" s="16">
+        <v>2212.8000000000002</v>
+      </c>
+      <c r="F27" s="13">
+        <v>36839</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <v>10671</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="10">
+        <v>90481</v>
+      </c>
+      <c r="D30" s="8">
+        <v>611</v>
+      </c>
+      <c r="E30" s="8">
+        <v>189</v>
+      </c>
+      <c r="F30" s="10">
+        <v>48321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8">
+        <v>19</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="10">
+        <v>15738</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="9" customHeight="1">
+      <c r="A32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>30376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="8.5" customHeight="1">
+      <c r="A33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="10">
+        <v>37274</v>
+      </c>
+      <c r="D33" s="10">
+        <v>2486</v>
+      </c>
+      <c r="E33" s="8">
+        <v>131</v>
+      </c>
+      <c r="F33" s="10">
+        <v>30405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="9" customHeight="1">
+      <c r="A34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="13">
+        <v>127755</v>
+      </c>
+      <c r="D34" s="13">
+        <v>3116</v>
+      </c>
+      <c r="E34" s="12">
+        <v>97</v>
+      </c>
+      <c r="F34" s="13">
+        <v>135511</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="9" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:6" ht="9" customHeight="1">
+      <c r="A36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>41446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="9" customHeight="1">
+      <c r="A37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="8">
+        <v>705</v>
+      </c>
+      <c r="D37" s="10">
+        <v>2196</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="F37" s="10">
+        <v>200362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="9" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <v>17620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="9" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10">
+        <v>6802</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="9" customHeight="1">
+      <c r="A40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="12">
+        <v>705</v>
+      </c>
+      <c r="D40" s="13">
+        <v>2197</v>
+      </c>
+      <c r="E40" s="12">
+        <v>1</v>
+      </c>
+      <c r="F40" s="13">
+        <v>266230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="9" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="8.5" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="8">
+        <v>46</v>
+      </c>
+      <c r="D42" s="8">
+        <v>52</v>
+      </c>
+      <c r="E42" s="9">
+        <v>612.5</v>
+      </c>
+      <c r="F42" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1426</v>
+      </c>
+      <c r="D43" s="8">
+        <v>18</v>
+      </c>
+      <c r="E43" s="15">
+        <v>1604.4</v>
+      </c>
+      <c r="F43" s="8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="8">
+        <v>417</v>
+      </c>
+      <c r="D44" s="8">
+        <v>66</v>
+      </c>
+      <c r="E44" s="9">
+        <v>443.1</v>
+      </c>
+      <c r="F44" s="8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8">
+        <v>92</v>
+      </c>
+      <c r="E45" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="F45" s="8">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1665</v>
+      </c>
+      <c r="D46" s="8">
+        <v>114</v>
+      </c>
+      <c r="E46" s="9">
+        <v>615.6</v>
+      </c>
+      <c r="F46" s="8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="8">
+        <v>162</v>
+      </c>
+      <c r="D47" s="8">
+        <v>43</v>
+      </c>
+      <c r="E47" s="9">
+        <v>379.6</v>
+      </c>
+      <c r="F47" s="8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A48" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="10">
+        <v>1838</v>
+      </c>
+      <c r="D48" s="8">
+        <v>835</v>
+      </c>
+      <c r="E48" s="15">
+        <v>1818.4</v>
+      </c>
+      <c r="F48" s="8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="10">
+        <v>3590</v>
+      </c>
+      <c r="D49" s="8">
+        <v>173</v>
+      </c>
+      <c r="E49" s="15">
+        <v>5154.8</v>
+      </c>
+      <c r="F49" s="8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A50" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="10">
+        <v>3070</v>
+      </c>
+      <c r="D50" s="8">
+        <v>26</v>
+      </c>
+      <c r="E50" s="15">
+        <v>2814.5</v>
+      </c>
+      <c r="F50" s="8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A51" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="9">
+      <c r="E51" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="F51" s="8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A52" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="10">
+        <v>1420</v>
+      </c>
+      <c r="D52" s="8">
+        <v>89</v>
+      </c>
+      <c r="E52" s="9">
+        <v>54.2</v>
+      </c>
+      <c r="F52" s="10">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="8">
+        <v>105</v>
+      </c>
+      <c r="D53" s="8">
+        <v>14</v>
+      </c>
+      <c r="E53" s="15">
+        <v>2380</v>
+      </c>
+      <c r="F53" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A54" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="8">
+        <v>627</v>
+      </c>
+      <c r="D54" s="8">
+        <v>28</v>
+      </c>
+      <c r="E54" s="15">
+        <v>1284.3</v>
+      </c>
+      <c r="F54" s="8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A55" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="8">
+        <v>645</v>
+      </c>
+      <c r="D55" s="8">
+        <v>238</v>
+      </c>
+      <c r="E55" s="9">
+        <v>541.70000000000005</v>
+      </c>
+      <c r="F55" s="8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A56" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="10">
+        <v>1220</v>
+      </c>
+      <c r="D56" s="8">
+        <v>173</v>
+      </c>
+      <c r="E56" s="15">
+        <v>1352.4</v>
+      </c>
+      <c r="F56" s="8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A57" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8">
+        <v>470</v>
+      </c>
+      <c r="E57" s="15">
+        <v>1175</v>
+      </c>
+      <c r="F57" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A58" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="10">
+        <v>1210</v>
+      </c>
+      <c r="E58" s="9">
+        <v>224.5</v>
+      </c>
+      <c r="F58" s="8">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A59" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="8">
+        <v>291</v>
+      </c>
+      <c r="E59" s="9">
+        <v>21.7</v>
+      </c>
+      <c r="F59" s="10">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A60" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="8">
+        <v>19</v>
+      </c>
+      <c r="E60" s="9">
+        <v>39.6</v>
+      </c>
+      <c r="F60" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A61" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="8">
+        <v>347</v>
+      </c>
+      <c r="D61" s="8">
+        <v>47</v>
+      </c>
+      <c r="E61" s="15">
+        <v>1231.3</v>
+      </c>
+      <c r="F61" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A62" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>35182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B62" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9">
-        <v>155</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="11">
-        <v>118129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="C62" s="10">
+        <v>1321</v>
+      </c>
+      <c r="D62" s="8">
+        <v>380</v>
+      </c>
+      <c r="E62" s="15">
+        <v>1620</v>
+      </c>
+      <c r="F62" s="8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A63" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9">
-        <v>11</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="11">
-        <v>320051</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0</v>
-      </c>
-      <c r="D7" s="13">
-        <v>166</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
-        <v>473431</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="9">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>143</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="F10" s="11">
-        <v>4872</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11">
-        <v>135226</v>
-      </c>
-      <c r="D11" s="9">
-        <v>157</v>
-      </c>
-      <c r="E11" s="10">
-        <v>2.9</v>
-      </c>
-      <c r="F11" s="11">
-        <v>6340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="11">
-        <v>27343</v>
-      </c>
-      <c r="D12" s="9">
-        <v>198</v>
-      </c>
-      <c r="E12" s="16">
-        <v>2135.4</v>
-      </c>
-      <c r="F12" s="11">
-        <v>15468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="11">
-        <v>5338</v>
-      </c>
-      <c r="D13" s="9">
-        <v>9</v>
-      </c>
-      <c r="E13" s="10">
-        <v>178.1</v>
-      </c>
-      <c r="F13" s="11">
-        <v>8098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1598</v>
-      </c>
-      <c r="D14" s="11">
-        <v>2695</v>
-      </c>
-      <c r="E14" s="10">
-        <v>66</v>
-      </c>
-      <c r="F14" s="11">
-        <v>6080</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9">
-        <v>26</v>
-      </c>
-      <c r="E15" s="10">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="F15" s="11">
-        <v>3864</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="14">
-        <v>169505</v>
-      </c>
-      <c r="D16" s="14">
-        <v>3231</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="F16" s="14">
-        <v>45054</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="15">
-        <v>383.4</v>
-      </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="11">
-        <v>11266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="11">
-        <v>539099</v>
-      </c>
-      <c r="D19" s="9">
-        <v>84</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <v>10404</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="11">
-        <v>9050</v>
-      </c>
-      <c r="D20" s="11">
-        <v>5020</v>
-      </c>
-      <c r="E20" s="16">
-        <v>5182.5</v>
-      </c>
-      <c r="F20" s="9">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="11">
-        <v>81200</v>
-      </c>
-      <c r="D21" s="9">
-        <v>430</v>
-      </c>
-      <c r="E21" s="16">
-        <v>5650.6</v>
-      </c>
-      <c r="F21" s="9">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="11">
-        <v>64695</v>
-      </c>
-      <c r="D22" s="9">
-        <v>14</v>
-      </c>
-      <c r="E22" s="16">
-        <v>17517.2</v>
-      </c>
-      <c r="F22" s="11">
-        <v>10317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="11">
-        <v>72200</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1515</v>
-      </c>
-      <c r="E23" s="10">
-        <v>627.20000000000005</v>
-      </c>
-      <c r="F23" s="9">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="11">
-        <v>30247</v>
-      </c>
-      <c r="D24" s="11">
-        <v>4465</v>
-      </c>
-      <c r="E24" s="16">
-        <v>56703.8</v>
-      </c>
-      <c r="F24" s="11">
-        <v>3688</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="8.5" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="11">
-        <v>1393</v>
-      </c>
-      <c r="D25" s="9">
-        <v>142</v>
-      </c>
-      <c r="E25" s="10">
-        <v>941.2</v>
-      </c>
-      <c r="F25" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="11">
-        <v>4830</v>
-      </c>
-      <c r="D26" s="9">
-        <v>793</v>
-      </c>
-      <c r="E26" s="16">
-        <v>17247.2</v>
-      </c>
-      <c r="F26" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="14">
-        <v>802714</v>
-      </c>
-      <c r="D27" s="14">
-        <v>12463</v>
-      </c>
-      <c r="E27" s="16">
-        <v>15755.1</v>
-      </c>
-      <c r="F27" s="14">
-        <v>36839</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="17">
-        <v>2212.8000000000002</v>
-      </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9">
-        <v>0</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="11">
-        <v>10671</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="11">
-        <v>90481</v>
-      </c>
-      <c r="D30" s="9">
-        <v>611</v>
-      </c>
-      <c r="E30" s="9">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11">
-        <v>48321</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9">
-        <v>19</v>
-      </c>
-      <c r="E31" s="9">
-        <v>189</v>
-      </c>
-      <c r="F31" s="11">
-        <v>15738</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9">
-        <v>0</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="11">
-        <v>30376</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="9" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="11">
-        <v>37274</v>
-      </c>
-      <c r="D33" s="11">
-        <v>2486</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="11">
-        <v>30405</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="8.5" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="14">
-        <v>127755</v>
-      </c>
-      <c r="D34" s="14">
-        <v>3116</v>
-      </c>
-      <c r="E34" s="9">
-        <v>131</v>
-      </c>
-      <c r="F34" s="14">
-        <v>135511</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="9" customHeight="1">
-      <c r="A35" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="13">
-        <v>97</v>
-      </c>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:6" ht="9" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="11">
-        <v>41446</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="9" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="9">
-        <v>705</v>
-      </c>
-      <c r="D37" s="11">
-        <v>2196</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0</v>
-      </c>
-      <c r="F37" s="11">
-        <v>200362</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="9" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9">
-        <v>0</v>
-      </c>
-      <c r="E38" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="F38" s="11">
-        <v>17620</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="9" customHeight="1">
-      <c r="A39" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9">
-        <v>1</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0</v>
-      </c>
-      <c r="F39" s="11">
-        <v>6802</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="9" customHeight="1">
-      <c r="A40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="13">
-        <v>705</v>
-      </c>
-      <c r="D40" s="14">
-        <v>2197</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0</v>
-      </c>
-      <c r="F40" s="14">
-        <v>266230</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="9" customHeight="1">
-      <c r="A41" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="13">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" ht="9" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="9">
-        <v>46</v>
-      </c>
-      <c r="D42" s="9">
-        <v>52</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="8.5" customHeight="1">
-      <c r="A43" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="11">
-        <v>1426</v>
-      </c>
-      <c r="D43" s="9">
-        <v>18</v>
-      </c>
-      <c r="E43" s="10">
-        <v>612.5</v>
-      </c>
-      <c r="F43" s="9">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A44" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="9">
-        <v>417</v>
-      </c>
-      <c r="D44" s="9">
-        <v>66</v>
-      </c>
-      <c r="E44" s="16">
-        <v>1604.4</v>
-      </c>
-      <c r="F44" s="9">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A45" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="9">
-        <v>92</v>
-      </c>
-      <c r="E45" s="10">
-        <v>443.1</v>
-      </c>
-      <c r="F45" s="9">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A46" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="11">
-        <v>1665</v>
-      </c>
-      <c r="D46" s="9">
-        <v>114</v>
-      </c>
-      <c r="E46" s="10">
-        <v>24.4</v>
-      </c>
-      <c r="F46" s="9">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A47" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="9">
-        <v>162</v>
-      </c>
-      <c r="D47" s="9">
-        <v>43</v>
-      </c>
-      <c r="E47" s="10">
-        <v>615.6</v>
-      </c>
-      <c r="F47" s="9">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="11">
-        <v>1838</v>
-      </c>
-      <c r="D48" s="9">
-        <v>835</v>
-      </c>
-      <c r="E48" s="10">
-        <v>379.6</v>
-      </c>
-      <c r="F48" s="9">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A49" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="11">
-        <v>3590</v>
-      </c>
-      <c r="D49" s="9">
-        <v>173</v>
-      </c>
-      <c r="E49" s="16">
-        <v>1818.4</v>
-      </c>
-      <c r="F49" s="9">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A50" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="11">
-        <v>3070</v>
-      </c>
-      <c r="D50" s="9">
-        <v>26</v>
-      </c>
-      <c r="E50" s="16">
-        <v>5154.8</v>
-      </c>
-      <c r="F50" s="9">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A51" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="9">
-        <v>76</v>
-      </c>
-      <c r="E51" s="16">
-        <v>2814.5</v>
-      </c>
-      <c r="F51" s="9">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A52" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="11">
-        <v>1420</v>
-      </c>
-      <c r="D52" s="9">
-        <v>89</v>
-      </c>
-      <c r="E52" s="10">
-        <v>9.5</v>
-      </c>
-      <c r="F52" s="11">
-        <v>2784</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A53" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="9">
-        <v>105</v>
-      </c>
-      <c r="D53" s="9">
-        <v>14</v>
-      </c>
-      <c r="E53" s="10">
-        <v>54.2</v>
-      </c>
-      <c r="F53" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A54" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="9">
-        <v>627</v>
-      </c>
-      <c r="D54" s="9">
-        <v>28</v>
-      </c>
-      <c r="E54" s="16">
-        <v>2380</v>
-      </c>
-      <c r="F54" s="9">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A55" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="9">
-        <v>645</v>
-      </c>
-      <c r="D55" s="9">
-        <v>238</v>
-      </c>
-      <c r="E55" s="16">
-        <v>1284.3</v>
-      </c>
-      <c r="F55" s="9">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A56" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="11">
-        <v>1220</v>
-      </c>
-      <c r="D56" s="9">
-        <v>173</v>
-      </c>
-      <c r="E56" s="10">
-        <v>541.70000000000005</v>
-      </c>
-      <c r="F56" s="9">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A57" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="9">
-        <v>470</v>
-      </c>
-      <c r="E57" s="16">
-        <v>1352.4</v>
-      </c>
-      <c r="F57" s="9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A58" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="11">
-        <v>1210</v>
-      </c>
-      <c r="E58" s="16">
-        <v>1175</v>
-      </c>
-      <c r="F58" s="9">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A59" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="9">
-        <v>291</v>
-      </c>
-      <c r="E59" s="10">
-        <v>224.5</v>
-      </c>
-      <c r="F59" s="11">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A60" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="9">
-        <v>19</v>
-      </c>
-      <c r="E60" s="10">
-        <v>21.7</v>
-      </c>
-      <c r="F60" s="9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A61" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="9">
-        <v>347</v>
-      </c>
-      <c r="D61" s="9">
-        <v>47</v>
-      </c>
-      <c r="E61" s="10">
-        <v>39.6</v>
-      </c>
-      <c r="F61" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A62" s="7" t="s">
+      <c r="B63" s="7"/>
+      <c r="C63" s="13">
+        <v>17899</v>
+      </c>
+      <c r="D63" s="13">
+        <v>4454</v>
+      </c>
+      <c r="E63" s="14">
+        <v>307.2</v>
+      </c>
+      <c r="F63" s="13">
+        <v>7276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="8.25" customHeight="1">
+      <c r="A64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="11">
-        <v>1321</v>
-      </c>
-      <c r="D62" s="9">
-        <v>380</v>
-      </c>
-      <c r="E62" s="16">
-        <v>1231.3</v>
-      </c>
-      <c r="F62" s="9">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A63" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="14">
-        <v>17899</v>
-      </c>
-      <c r="D63" s="14">
-        <v>4454</v>
-      </c>
-      <c r="E63" s="16">
-        <v>1620</v>
-      </c>
-      <c r="F63" s="14">
-        <v>7276</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A64" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="22">
+      <c r="B64" s="20"/>
+      <c r="C64" s="21">
         <v>1118578</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D64" s="21">
         <v>25627</v>
       </c>
-      <c r="E64" s="15">
-        <v>307.2</v>
-      </c>
-      <c r="F64" s="22">
+      <c r="E64" s="22">
+        <v>118.7</v>
+      </c>
+      <c r="F64" s="21">
         <v>964341</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A65" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="23">
-        <v>118.7</v>
-      </c>
-      <c r="F65" s="25"/>
+    <row r="65" spans="3:6">
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="F65" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="E1:E2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2751,8 +2698,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="8.25" customHeight="1">
-      <c r="A1" s="26" t="s">
-        <v>73</v>
+      <c r="A1" s="25" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
